--- a/Rekapitulasi Data (Concise).xlsx
+++ b/Rekapitulasi Data (Concise).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\DAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\DDAC2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462F298-113C-436C-BC81-45821C99DF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042BCCF8-3C47-41DA-8FC9-B91AC8E65A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="585" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rekap Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1055,10 +1057,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1296,10 +1298,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1314,7 +1316,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1339,10 +1341,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1350,14 +1352,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1402,16 +1404,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1635,10 +1637,10 @@
   <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1705,7 +1707,7 @@
         <v>24</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>26</v>
